--- a/jxls-poi/src/test/resources/org/jxls3/YellowCommandTest.xlsx
+++ b/jxls-poi/src/test/resources/org/jxls3/YellowCommandTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\git-repos-2203\jxls3\jxls-poi\src\test\resources\org\jxls3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDA83CB-F78A-4B2F-BCF8-7C362AA13DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90958A04-F18A-4E73-AE80-2A8276ED0DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="3420" windowWidth="21570" windowHeight="11385" xr2:uid="{6CCFD295-1CCF-445D-9327-8EE5976927A7}"/>
   </bookViews>
@@ -110,7 +110,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-jx:yellow(condition="e.payment&gt;2500")</t>
+jx:yellow(condition="e.payment&gt;2500" lastCell="C2")</t>
         </r>
       </text>
     </comment>
@@ -556,7 +556,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
